--- a/Projekt/ArrivalProfiles.xlsx
+++ b/Projekt/ArrivalProfiles.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/evdh_dtu_dk/Documents/Teaching/DecisionUnderUncertainty/Simulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s204617_dtu_dk/Documents/Decisions under uncertainty/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A608C0F-55A4-4525-AA90-B2AB220F4F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="14100"/>
+    <workbookView xWindow="2090" yWindow="3220" windowWidth="29600" windowHeight="14260" xr2:uid="{D3509A2E-A134-450D-BC36-7D71AE3656B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,13 +37,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="9">
   <si>
+    <t>expected arrivals per hour</t>
+  </si>
+  <si>
     <t>Nørreport--DTU</t>
   </si>
   <si>
-    <t>DTU--Nørreport</t>
+    <t>0.1</t>
   </si>
   <si>
-    <t>expected arrivals per hour</t>
+    <t>DTU--Nørreport</t>
   </si>
   <si>
     <t>expected travel time in hours</t>
@@ -49,14 +63,11 @@
   <si>
     <t>0.65</t>
   </si>
-  <si>
-    <t>0.1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +133,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -134,7 +145,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -181,6 +192,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -216,6 +244,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,22 +412,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0996C00-2215-4A0B-BECA-F6EE9E76938E}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection sqref="A1:AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -460,9 +501,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f>SUM(C2:AA2)</f>
@@ -472,16 +513,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -529,13 +570,13 @@
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z2">
         <v>10</v>
@@ -544,31 +585,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <f>SUM(C3:AA3)</f>
         <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -625,463 +666,175 @@
         <v>5</v>
       </c>
       <c r="AA3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
         <v>8</v>
       </c>
+      <c r="U7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
         <v>7</v>
       </c>
-      <c r="U7" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" t="s">
-        <v>4</v>
-      </c>
-      <c r="X7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101002B266C41491F0344B0A6F57C1025A33B" ma:contentTypeVersion="14" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="43131843cd7d33321bb7040a9821a4c3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0531a578-ead4-4344-ba77-5a434ec93afb" xmlns:ns4="c7bb9458-585e-4d11-b1e1-2dbd3590702d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f734a655886df0bca9f5ed417385065" ns3:_="" ns4:_="">
-    <xsd:import namespace="0531a578-ead4-4344-ba77-5a434ec93afb"/>
-    <xsd:import namespace="c7bb9458-585e-4d11-b1e1-2dbd3590702d"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0531a578-ead4-4344-ba77-5a434ec93afb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c7bb9458-585e-4d11-b1e1-2dbd3590702d" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Delt med detaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Hashværdi for deling" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Indholdstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A11896ED-B03D-4AE0-91C4-41C64D358699}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0531a578-ead4-4344-ba77-5a434ec93afb"/>
-    <ds:schemaRef ds:uri="c7bb9458-585e-4d11-b1e1-2dbd3590702d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE3844A2-5C83-4DAD-A82E-B33BFF5A9FD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F318CB18-58A9-4D9C-B887-92E39BF434CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0531a578-ead4-4344-ba77-5a434ec93afb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c7bb9458-585e-4d11-b1e1-2dbd3590702d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Projekt/ArrivalProfiles.xlsx
+++ b/Projekt/ArrivalProfiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s204617_dtu_dk/Documents/Decisions under uncertainty/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A608C0F-55A4-4525-AA90-B2AB220F4F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{3A608C0F-55A4-4525-AA90-B2AB220F4F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E614BCD-888C-43A5-9CD0-7DF968860B8A}"/>
   <bookViews>
-    <workbookView xWindow="2090" yWindow="3220" windowWidth="29600" windowHeight="14260" xr2:uid="{D3509A2E-A134-450D-BC36-7D71AE3656B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3509A2E-A134-450D-BC36-7D71AE3656B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>expected arrivals per hour</t>
   </si>
@@ -43,35 +43,26 @@
     <t>Nørreport--DTU</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>DTU--Nørreport</t>
   </si>
   <si>
     <t>expected travel time in hours</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,10 +407,13 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -506,23 +500,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>SUM(C2:AA2)</f>
         <v>275</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -569,14 +562,14 @@
       <c r="V2">
         <v>5</v>
       </c>
-      <c r="W2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>2</v>
+      <c r="W2">
+        <v>0.1</v>
+      </c>
+      <c r="X2">
+        <v>0.1</v>
+      </c>
+      <c r="Y2">
+        <v>0.1</v>
       </c>
       <c r="Z2">
         <v>10</v>
@@ -587,29 +580,28 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <f>SUM(C3:AA3)</f>
         <v>275</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -665,176 +657,177 @@
       <c r="Z3">
         <v>5</v>
       </c>
-      <c r="AA3" t="s">
-        <v>2</v>
+      <c r="AA3">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W7" t="s">
-        <v>5</v>
-      </c>
-      <c r="X7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>5</v>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.5</v>
+      </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S7">
+        <v>0.6</v>
+      </c>
+      <c r="T7">
+        <v>0.65</v>
+      </c>
+      <c r="U7">
+        <v>0.6</v>
+      </c>
+      <c r="V7">
+        <v>0.5</v>
+      </c>
+      <c r="W7">
+        <v>0.5</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7">
+        <v>0.5</v>
+      </c>
+      <c r="Z7">
+        <v>0.5</v>
+      </c>
+      <c r="AA7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" t="s">
-        <v>6</v>
-      </c>
-      <c r="V8" t="s">
-        <v>5</v>
-      </c>
-      <c r="W8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J8">
+        <v>0.6</v>
+      </c>
+      <c r="K8">
+        <v>0.6</v>
+      </c>
+      <c r="L8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M8">
+        <v>0.5</v>
+      </c>
+      <c r="N8">
+        <v>0.5</v>
+      </c>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>0.5</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V8">
+        <v>0.5</v>
+      </c>
+      <c r="W8">
+        <v>0.5</v>
+      </c>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8">
+        <v>0.5</v>
+      </c>
+      <c r="Z8">
+        <v>0.5</v>
+      </c>
+      <c r="AA8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Projekt/ArrivalProfiles.xlsx
+++ b/Projekt/ArrivalProfiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s204617_dtu_dk/Documents/Decisions under uncertainty/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{3A608C0F-55A4-4525-AA90-B2AB220F4F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E614BCD-888C-43A5-9CD0-7DF968860B8A}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{3A608C0F-55A4-4525-AA90-B2AB220F4F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D0CC0B0-6063-4A57-AC6C-66FFC564E305}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3509A2E-A134-450D-BC36-7D71AE3656B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D3509A2E-A134-450D-BC36-7D71AE3656B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0996C00-2215-4A0B-BECA-F6EE9E76938E}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
